--- a/INTROUVABLE/data/Med_Hep_dci_atc.xlsx
+++ b/INTROUVABLE/data/Med_Hep_dci_atc.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11</t>
+          <t>J05AP01 + L03AB11</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>L03AB10</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INTROUVABLE (VIRAFÉRON)</t>
+          <t>Interféron alfa-2b</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>L03AB05</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INTROUVABLE (HEPSERA)</t>
+          <t>Adéfovir dipivoxil</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AF08</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + INTROUVABLE (VIEKIRAX)</t>
+          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>J05AR08 + NON_TROUVE</t>
+          <t>J05AR08 + J05AX67</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS)</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AE11 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INTROUVABLE (SOFOSBUVIR/LEDIPASVIR)</t>
+          <t>Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AP51</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + SOFOSBUVIR</t>
+          <t>Daclatasvir + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP08</t>
+          <t>J05AX14 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N04BB01 + NON_TROUVE + NON_TROUVE</t>
+          <t>N04BB01 + J05AP01 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INTROUVABLE (SOFOSBUVIR/LEDIPASVIR) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Sofosbuvir / Ledipasvir + Ribavirine</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP51 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Télaprévir + Ribavirine</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AE11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Ribavirine + Télaprévir + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + L03AB11</t>
+          <t>J05AP01 + J05AE11 + L03AB11</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INTROUVABLE (SIMEPREVIR) + SOFOSBUVIR</t>
+          <t>SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP08</t>
+          <t>J05AE14 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB05</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + J05AP08</t>
+          <t>L03AB11 + J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>INTROUVABLE (INTERFERON) + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>NON_TROUVE + L03AB10</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTRONA) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Interféron alfa-2b + Ribavirine</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB05 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>INTROUVABLE (TELAPREVIR) + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>télaprévir + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AE11 + J05AP01 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (COPEGUS) + INTROUVABLE (DACLASTAVIR) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Asunaprévir + Ribavirine + daclatasvir + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE + L03AB11</t>
+          <t>nan + J05AP01 + J05AX14 + L03AB11</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTRONA)</t>
+          <t>Interféron alfa-2b</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>L03AB05</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIEKIRAX)</t>
+          <t>Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + J05AX67</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ZEPATIER)</t>
+          <t>Elbasvir / Grazoprevir</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AP54</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>Daclatasvir + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + J05AP08</t>
+          <t>J05AX14 + J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AE11 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ROFÉRON)</t>
+          <t>Interféron alfa-2a</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>L03AB04</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (TELAPREVIR)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + télaprévir</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01 + J05AE11</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP08</t>
+          <t>J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIRAFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB05</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>INTROUVABLE (OLYSIO) + SOFOSBUVIR</t>
+          <t>Simeprevir + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP08</t>
+          <t>J05AE14 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS)</t>
+          <t>Ribavirine</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AP01</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DACLATASVIR) + SOFOSBUVIR</t>
+          <t>daclatasvir + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP08</t>
+          <t>J05AX14 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (BOCEPREVIR)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Boceprevir</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AP01 + L03AB11 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>INTROUVABLE (OLYSIO) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>Simeprevir + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + J05AP08</t>
+          <t>J05AE14 + J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>INTROUVABLE (OLYSIO) + SOFOSBUVIR</t>
+          <t>Simeprevir + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP08</t>
+          <t>J05AE14 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (ROFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2a</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB04</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (TELAPREVIR) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Ribavirine + télaprévir + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + L03AB11</t>
+          <t>J05AP01 + J05AE11 + L03AB11</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>INTROUVABLE (MK5172) + INTROUVABLE (MK8742)</t>
+          <t>Grazoprevir + Elbasvir</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP11 + J05AP10</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DACLATASVIR) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>daclatasvir + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP55</t>
+          <t>J05AX14 + J05AP51</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (TELAPREVIR)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + télaprévir</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AP01 + L03AB11 + J05AE11</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DACLATASVIR) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>daclatasvir + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + J05AP08</t>
+          <t>J05AX14 + J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (DACLATASVIR) + PEGINTERFÉRON ALFA-2A + ÉTRAVIRINE</t>
+          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + L03AB11 + J05AG04</t>
+          <t>nan + J05AX14 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>J05AF10 + NON_TROUVE + J05AP08</t>
+          <t>J05AF10 + J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (INTERFERON)</t>
+          <t>Ribavirine + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + NON_TROUVE</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BULEVIRTIDE) + PEGINTERFÉRON ALFA-2A</t>
+          <t>bulévirtide + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11</t>
+          <t>J05AX28 + L03AB11</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (BOCEPREVIR) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Boceprevir + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + J05AE12 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>INTROUVABLE (HEPSERA) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Adéfovir dipivoxil + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11</t>
+          <t>J05AF08 + L03AB11</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Ribavirine</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AP01</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Ribavirine + Ribavirine</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>INTROUVABLE (TELAPREVIR) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AE11 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (VIEKIRAX)</t>
+          <t>Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + J05AX67</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DASABUVIR) + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (OMBITASVIR/PARITAPREVIR/RITONAVIR)</t>
+          <t>dasabuvir + Ribavirine + OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP09 + J05AP01 + J05AX</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (DACLATASVIR) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>nan + J05AX14 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>INTROUVABLE (VIEKIRAX)</t>
+          <t>Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AX67</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP55</t>
+          <t>J05AP01 + J05AP51</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL)</t>
+          <t>Ribavirine</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AP01</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (OLYSIO) + SOFOSBUVIR</t>
+          <t>Daclatasvir + Simeprevir + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + J05AP08</t>
+          <t>J05AX14 + J05AE14 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + ÉTRAVIRINE</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>L03AB11 + J05AG04</t>
+          <t>L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>LÉDIPASVIR / SOFOSBUVIR + Ribavirine</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>J05AP51 + NON_TROUVE</t>
+          <t>J05AP51 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + INTROUVABLE (ABT-267) + INTROUVABLE (ABT- 450/ R) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir + Lopinavir / ritonavir + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>J05AR08 + NON_TROUVE + NON_TROUVE + NON_TROUVE + J05AP08</t>
+          <t>J05AR08 + nan + J05AR10 + J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A</t>
+          <t>Ribavirine + CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>NON_TROUVE + N04BB01 + L03AB11</t>
+          <t>J05AP01 + N04BB01 + L03AB11</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ABT-333) + SOFOSBUVIR</t>
+          <t>Dasabuvir + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP08</t>
+          <t>J05AP09 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (DACLATASVIR)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + daclatasvir</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01 + J05AX14</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIEKIRAX)</t>
+          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>J05AR08 + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AR08 + J05AP01 + J05AX67</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (VIRAFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB05</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (COPEGUS) + INTROUVABLE (DACLATASVIR) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Asunaprévir + Ribavirine + daclatasvir + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE + L03AB11</t>
+          <t>nan + J05AP01 + J05AX14 + L03AB11</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BMS 79 002) + INTROUVABLE (DACLATASVIR) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>INTROUVABLE (BMS 79 002) + daclatasvir + Ribavirine</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>NON_TROUVE + J05AX14 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DACLATASVIR) + INTROUVABLE (INTERFERON) + ÉTRAVIRINE</t>
+          <t>daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + J05AG04</t>
+          <t>J05AX14 + NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + ÉTRAVIRINE</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + J05AG04</t>
+          <t>J05AE11 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (VIRAFERON PEG) + INTROUVABLE (BOCEPREVIR)</t>
+          <t>Ribavirine + Péginterféron alfa-2b + Boceprevir</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB10 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>NON_TROUVE + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + ÉTRAVIRINE</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AG04</t>
+          <t>NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>SOFOSBUVIR / VELPATASVIR + Ribavirine</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>J05AP55 + NON_TROUVE</t>
+          <t>J05AP55 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INTROUVABLE (VIRAFÉRON) + LAMIVUDINE</t>
+          <t>Interféron alfa-2b + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AF05</t>
+          <t>L03AB05 + J05AF05</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ABT-333) + INTROUVABLE (ABT-267) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Dasabuvir + Ombitasvir + Ribavirine</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP09 + nan + J05AP01</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>J05AF10 + NON_TROUVE</t>
+          <t>J05AF10 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Ribavirine + SOFOSBUVIR / VELPATASVIR</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP55</t>
+          <t>J05AP01 + J05AP55</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ÉTRAVIRINE + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>J05AG04 + J05AP55</t>
+          <t>J05AP01 + J05AP51</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP55</t>
+          <t>J05AP01 + J05AP51</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ÉTRAVIRINE + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>J05AG04 + NON_TROUVE</t>
+          <t>J05AP01 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO)</t>
+          <t>Télaprévir</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AE11</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VICTRELIS) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Bocéprévir + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + J05AE12 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (INCIVO) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Télaprévir + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + J05AE11 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>INTROUVABLE (HEPSERA) + ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>Adéfovir dipivoxil + ENTÉCAVIR MONOHYDRATÉ</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AF10</t>
+          <t>J05AF08 + J05AF10</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ABT-493) + INTROUVABLE (ABT-530)</t>
+          <t>Glecaprevir + Lopinavir / ritonavir</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>nan + J05AR10</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AE11 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (BOCEPREVIR)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine + Boceprevir</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>NON_TROUVE + J05AP01 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (TELAPREVIR) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Ribavirine + télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AP01 + J05AE11 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (BOCEPREVIR) + INTROUVABLE (VIRAFÉRON)</t>
+          <t>Ribavirine + Boceprevir + Interféron alfa-2b</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + J05AE12 + L03AB05</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (TMC 435 ANTIPROTÉASE)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Rilpivirine</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AP01 + L03AB11 + J05AG05</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DACLATASVIR) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AX14 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (DACLATASVIR)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + daclatasvir</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AP01 + L03AB11 + J05AX14</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>INTROUVABLE (HEPSERA) + LAMIVUDINE</t>
+          <t>Adéfovir dipivoxil + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AF05</t>
+          <t>J05AF08 + J05AF05</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ALUVIA) + INTROUVABLE (BULEVIRTIDE)</t>
+          <t>Lopinavir / Ritonavir + bulévirtide</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AR10 + J05AX28</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (OMBITASVIR/PARITAPREVIR/RITONAVIR)</t>
+          <t>Ribavirine + OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + J05AX</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>J05AF10 + NON_TROUVE + L03AB11</t>
+          <t>J05AF10 + J05AP01 + L03AB11</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + ENTÉCAVIR MONOHYDRATÉ + INTROUVABLE (COPEGUS) + INTROUVABLE (DACLATASVIR) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Asunaprévir + ENTÉCAVIR MONOHYDRATÉ + Ribavirine + daclatasvir + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AF10 + NON_TROUVE + NON_TROUVE + L03AB11</t>
+          <t>nan + J05AF10 + J05AP01 + J05AX14 + L03AB11</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Ribavirine</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AP01</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (SIMEPREVIR) + SOFOSBUVIR</t>
+          <t>Ribavirine + SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + J05AP08</t>
+          <t>J05AP01 + J05AE14 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BULEVIRTIDE)</t>
+          <t>bulévirtide</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AX28</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INTROUVABLE (TELAPREVIR) + INTROUVABLE (INTERFERON) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AE11 + NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR / PIBRENTASVIR + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>GLÉCAPRÉVIR / PIBRENTASVIR + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>J05AP57 + NON_TROUVE + J05AP08</t>
+          <t>J05AP57 + J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AE11 + NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VICTRELIS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR + INTROUVABLE (ZEPATIER)</t>
+          <t>Ribavirine + SOFOSBUVIR + Elbasvir / Grazoprevir</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP08 + NON_TROUVE</t>
+          <t>J05AP01 + J05AP08 + J05AP54</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (VICTRELIS)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Bocéprévir</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AP01 + L03AB11 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>INTROUVABLE (VICTRELIS)</t>
+          <t>Bocéprévir</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AE12</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DASABUVIR) + INTROUVABLE (OMBITASVIR/PARITAPREVIR/RITONAVIR)</t>
+          <t>dasabuvir + OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP09 + J05AX</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>N04BB01 + NON_TROUVE + NON_TROUVE</t>
+          <t>N04BB01 + J05AP01 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ÉTRAVIRINE + INTROUVABLE (INTERFERON)</t>
+          <t>Ribavirine + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>J05AG04 + NON_TROUVE</t>
+          <t>J05AP01 + NON_TROUVE</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP55</t>
+          <t>J05AP01 + J05AP51</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AE11 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + J05AP55</t>
+          <t>L03AB11 + J05AP01 + J05AP51</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIRAFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB05</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR + INTROUVABLE (ZEPATIER)</t>
+          <t>SOFOSBUVIR + Elbasvir / Grazoprevir</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>J05AP08 + NON_TROUVE</t>
+          <t>J05AP08 + J05AP54</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (ROFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2a</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB04</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VICTRELIS)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine + Bocéprévir</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>NON_TROUVE + J05AP01 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BULEVIRTIDE) + PEGINTERFÉRON ALFA-2A</t>
+          <t>bulévirtide + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11</t>
+          <t>J05AX28 + L03AB11</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>LÉDIPASVIR / SOFOSBUVIR + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>J05AP51 + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP51 + NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ÉTRAVIRINE</t>
+          <t>Ribavirine</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>J05AG04</t>
+          <t>J05AP01</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>INTROUVABLE (HEPSERA) + INTROUVABLE (VIRAFERON PEG) + LAMIVUDINE</t>
+          <t>Adéfovir dipivoxil + Péginterféron alfa-2b + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + J05AF05</t>
+          <t>J05AF08 + L03AB10 + J05AF05</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BI 207127 ANTIPOLYMÉRASE) + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Deleobuvir + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>nan + NON_TROUVE + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>LÉDIPASVIR / SOFOSBUVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>J05AP51 + L03AB11 + NON_TROUVE</t>
+          <t>J05AP51 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + INTROUVABLE (HEPSERA)</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + Adéfovir dipivoxil</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>J05AF10 + NON_TROUVE</t>
+          <t>J05AF10 + J05AF08</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VICTRELIS)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine + Bocéprévir</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>NON_TROUVE + J05AP01 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (BOCEPREVIR)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Boceprevir</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG) + INTROUVABLE (BOCEPREVIR)</t>
+          <t>Ribavirine + Péginterféron alfa-2b + Boceprevir</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB10 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR / VELPATASVIR / VOXILAPRÉVIR</t>
+          <t>Ribavirine + SOFOSBUVIR / VELPATASVIR / VOXILAPRÉVIR</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP56</t>
+          <t>J05AP01 + J05AP56</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (BI 201335 ANTIPROTÉASE)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Deleobuvir</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AP01 + L03AB11 + nan</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (INTRONA)</t>
+          <t>Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB05</t>
         </is>
       </c>
     </row>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AE11 + NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3229,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + SOFOSBUVIR + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP08 + NON_TROUVE</t>
+          <t>J05AP01 + J05AP08 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (DACLATASVIR) + INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Asunaprévir + daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>nan + J05AX14 + NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON)</t>
+          <t>Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB05</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3280,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (ROFÉRON) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Interféron alfa-2a + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB04 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + J05AP08</t>
+          <t>NON_TROUVE + J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -3314,12 +3314,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11</t>
+          <t>J05AE11 + L03AB11</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>INTROUVABLE (VIRAFÉRON) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Interféron alfa-2b + Ribavirine</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB05 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3348,12 +3348,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>INTROUVABLE (TELAPREVIR)</t>
+          <t>télaprévir</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AE11</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTRONA) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Interféron alfa-2b + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>L03AB05 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3382,12 +3382,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ÉTRAVIRINE + INTROUVABLE (ROFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2a</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>J05AG04 + NON_TROUVE</t>
+          <t>J05AP01 + L03AB04</t>
         </is>
       </c>
     </row>
@@ -3399,12 +3399,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Daclatasvir + Ribavirine + SOFOSBUVIR / VELPATASVIR</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + J05AP55</t>
+          <t>J05AX14 + J05AP01 + J05AP55</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE) + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>J05AR03 + NON_TROUVE + J05AP08</t>
+          <t>J05AR03 + J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (BOCEPREVIR) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Boceprevir + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + J05AE12 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -3450,12 +3450,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ZIDOVUDINE + INTROUVABLE (VIDEX)</t>
+          <t>ZIDOVUDINE + Didanosine</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>J05AF01 + NON_TROUVE</t>
+          <t>J05AF01 + J05AF02</t>
         </is>
       </c>
     </row>
@@ -3467,12 +3467,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AE11 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ABT-267) + INTROUVABLE (ABT- 450/ R) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Ombitasvir + Lopinavir / ritonavir + Ribavirine</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>nan + J05AR10 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3518,12 +3518,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>SOFOSBUVIR / VELPATASVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>J05AP55 + L03AB11 + NON_TROUVE</t>
+          <t>J05AP55 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3535,12 +3535,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (INTERFÉRON PEGYLÉ)</t>
+          <t>Ribavirine + Péginterféron alfa (non précisé)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + nan</t>
         </is>
       </c>
     </row>
@@ -3552,12 +3552,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL) + LAMIVUDINE</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + J05AF05</t>
+          <t>L03AB11 + J05AP01 + J05AF05</t>
         </is>
       </c>
     </row>
@@ -3569,12 +3569,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AX14 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + ÉTRAVIRINE + INTROUVABLE (VICTRELIS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>L03AB11 + J05AG04 + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -3603,12 +3603,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (DAKLINZA)</t>
+          <t>Asunaprévir + Daclatasvir</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>nan + J05AX14</t>
         </is>
       </c>
     </row>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Télaprévir + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AE11 + J05AP01 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>N04BB01 + L03AB11 + NON_TROUVE</t>
+          <t>N04BB01 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ZEPATIER)</t>
+          <t>Elbasvir / Grazoprevir</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AP54</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>N04BB01 + L03AB11 + NON_TROUVE</t>
+          <t>N04BB01 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VICTRELIS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + SOFOSBUVIR + INTROUVABLE (VIEKIRAX)</t>
+          <t>Daclatasvir + SOFOSBUVIR + Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP08 + NON_TROUVE</t>
+          <t>J05AX14 + J05AP08 + J05AX67</t>
         </is>
       </c>
     </row>
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>NON_TROUVE + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + SOFOSBUVIR</t>
+          <t>Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP08</t>
+          <t>J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -3756,12 +3756,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (INTERFERON) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AE11 + NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + SOFOSBUVIR</t>
+          <t>Asunaprévir + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP08</t>
+          <t>nan + J05AP08</t>
         </is>
       </c>
     </row>
@@ -3790,12 +3790,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>LÉDIPASVIR / SOFOSBUVIR + Ribavirine</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>J05AP51 + NON_TROUVE</t>
+          <t>J05AP51 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3807,12 +3807,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Télaprévir + INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AE11 + NON_TROUVE + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>Daclatasvir + LÉDIPASVIR / SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP51</t>
+          <t>J05AX14 + J05AP51</t>
         </is>
       </c>
     </row>
@@ -3875,12 +3875,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR / SOFOSBUVIR + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR / SOFOSBUVIR + Ribavirine</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>J05AF10 + J05AP51 + NON_TROUVE</t>
+          <t>J05AF10 + J05AP51 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3892,12 +3892,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS) + INTROUVABLE (INCIVO)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Télaprévir</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01 + J05AE11</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>INTROUVABLE (MK5172) + INTROUVABLE (MK8742) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Grazoprevir + Elbasvir + Ribavirine</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP11 + J05AP10 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>INTROUVABLE (TELAPREVIR) + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (ROFÉRON)</t>
+          <t>télaprévir + Ribavirine + Interféron alfa-2a</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AE11 + J05AP01 + L03AB04</t>
         </is>
       </c>
     </row>
@@ -3943,12 +3943,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFÉRON)</t>
+          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>N04BB01 + NON_TROUVE + NON_TROUVE</t>
+          <t>N04BB01 + J05AP01 + L03AB05</t>
         </is>
       </c>
     </row>
@@ -3960,12 +3960,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>NON_TROUVE + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3977,12 +3977,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ÉTRAVIRINE + INTROUVABLE (VIRAFÉRON) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Ribavirine + Interféron alfa-2b + Ribavirine</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>J05AG04 + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB05 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -3994,12 +3994,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (TELAPREVIR)</t>
+          <t>Ribavirine + télaprévir</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + J05AE11</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>INTROUVABLE (VIRAFERON PEG) + LAMIVUDINE</t>
+          <t>Péginterféron alfa-2b + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AF05</t>
+          <t>L03AB10 + J05AF05</t>
         </is>
       </c>
     </row>
@@ -4028,12 +4028,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BULEVIRTIDE)</t>
+          <t>bulévirtide</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AX28</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTRONA) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Interféron alfa-2b + Ribavirine</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB05 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4062,12 +4062,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (INTERFERON) + INTROUVABLE (ROFÉRON) + INTROUVABLE (BOCEPREVIR)</t>
+          <t>Ribavirine + INTROUVABLE (INTERFERON) + Interféron alfa-2a + Boceprevir</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + NON_TROUVE + L03AB04 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -4079,12 +4079,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (INTERFERON) + ÉTRAVIRINE</t>
+          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + J05AG04</t>
+          <t>J05AE11 + NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4096,12 +4096,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Télaprévir + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AE11 + J05AP01 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -4113,12 +4113,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ZEPATIER)</t>
+          <t>Elbasvir / Grazoprevir</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AP54</t>
         </is>
       </c>
     </row>
@@ -4130,12 +4130,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>INTROUVABLE (MYRCLUDEX)</t>
+          <t>Bulevirtide</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AX28</t>
         </is>
       </c>
     </row>
@@ -4147,12 +4147,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (OLYSIO) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>Daclatasvir + Simeprevir + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE + J05AP08</t>
+          <t>J05AX14 + J05AE14 + J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>NON_TROUVE + J05AP01 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DACLATASVIR) + INTROUVABLE (INTERFERON) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AX14 + NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4215,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (ROFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2a</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB04</t>
         </is>
       </c>
     </row>
@@ -4232,12 +4232,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS) + INTROUVABLE (VICTRELIS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -4249,12 +4249,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + CHLORHYDRATE D'AMANTADINE + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + CHLORHYDRATE D'AMANTADINE + Ribavirine</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>NON_TROUVE + N04BB01 + NON_TROUVE</t>
+          <t>NON_TROUVE + N04BB01 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ROFÉRON) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Interféron alfa-2a + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB04 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4283,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4300,12 +4300,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFÉRON PEGYLÉ) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Péginterféron alfa (non précisé) + Ribavirine</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>nan + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4317,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>INTROUVABLE (MK5172A)</t>
+          <t>Grazoprevir</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AP11</t>
         </is>
       </c>
     </row>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BULEVIRTIDE) + INTROUVABLE (INTERFERON)</t>
+          <t>bulévirtide + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AX28 + NON_TROUVE</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFÉRON PEGYLÉ)</t>
+          <t>Péginterféron alfa (non précisé)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTRONA) + LAMIVUDINE</t>
+          <t>Interféron alfa-2b + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AF05</t>
+          <t>L03AB05 + J05AF05</t>
         </is>
       </c>
     </row>
@@ -4402,12 +4402,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>SULFATE D'AMIKACINE + INTROUVABLE (ETHAMBUTOL) + CHLORHYDRATE DE MOXIFLOXACINE + LINÉZOLIDE</t>
+          <t>SULFATE D'AMIKACINE + éthambutol + CHLORHYDRATE DE MOXIFLOXACINE + LINÉZOLIDE</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>J01GB06 + NON_TROUVE + J01MA14 + J01XX08</t>
+          <t>J01GB06 + J04AK02 + J01MA14 + J01XX08</t>
         </is>
       </c>
     </row>
@@ -4419,12 +4419,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE DE MOXIFLOXACINE + INTROUVABLE (TMC207)</t>
+          <t>CHLORHYDRATE DE MOXIFLOXACINE + diarylquinolines</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>J01MA14 + NON_TROUVE</t>
+          <t>J01MA14 + nan</t>
         </is>
       </c>
     </row>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (DAKLINZA) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS)</t>
+          <t>Asunaprévir + Daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>nan + J05AX14 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>J05AF10 + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AF10 + J05AP01 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -4470,12 +4470,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VICTRELIS)</t>
+          <t>Ribavirine + Bocéprévir</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (SOFOSBUVIR/LEDIPASVIR)</t>
+          <t>Daclatasvir + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AX14 + J05AP51</t>
         </is>
       </c>
     </row>
@@ -4504,12 +4504,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Asunaprévir + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>nan + NON_TROUVE + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4521,12 +4521,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + ÉTRAVIRINE</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + J05AG04</t>
+          <t>NON_TROUVE + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4538,12 +4538,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS) + INTROUVABLE (COPEGUS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Ribavirine</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4555,12 +4555,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (TELAPREVIR) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + télaprévir + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + J05AE11 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -4572,12 +4572,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>INTROUVABLE (MK5172) + INTROUVABLE (MK8742) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>Grazoprevir + Elbasvir + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE + J05AP08</t>
+          <t>J05AP11 + J05AP10 + J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VICTRELIS) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Bocéprévir + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + J05AE12 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (SIMEPREVIR) + SOFOSBUVIR</t>
+          <t>Daclatasvir + Ribavirine + SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE + J05AP08</t>
+          <t>J05AX14 + J05AP01 + J05AE14 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -4640,12 +4640,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (INTRONA) + SOFOSBUVIR</t>
+          <t>Daclatasvir + Interféron alfa-2b + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + J05AP08</t>
+          <t>J05AX14 + L03AB05 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -4691,12 +4691,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4708,12 +4708,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE) + INTROUVABLE (ZEPATIER)</t>
+          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE) + Elbasvir / Grazoprevir</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>J05AR03 + NON_TROUVE</t>
+          <t>J05AR03 + J05AP54</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VICTRELIS) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Bocéprévir + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + J05AE12 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -4742,12 +4742,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS)</t>
+          <t>Daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AX14 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (BMS 79 002)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + INTROUVABLE (BMS 79 002)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AP01 + L03AB11 + NON_TROUVE</t>
         </is>
       </c>
     </row>
@@ -4776,12 +4776,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE + J05AP08</t>
+          <t>J05AE11 + L03AB11 + J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -4827,12 +4827,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VICTRELIS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -4844,12 +4844,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ÉTRAVIRINE + INTROUVABLE (VIRAFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>J05AG04 + NON_TROUVE</t>
+          <t>J05AP01 + L03AB05</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Ribavirine</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4878,12 +4878,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AX14 + NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4895,12 +4895,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + NON_TROUVE</t>
+          <t>L03AB11 + J05AP01 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -4912,12 +4912,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + CHLORHYDRATE D'AMANTADINE + INTROUVABLE (RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + CHLORHYDRATE D'AMANTADINE + Ribavirine</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>NON_TROUVE + N04BB01 + NON_TROUVE</t>
+          <t>NON_TROUVE + N04BB01 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4929,12 +4929,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DASABUVIR) + INTROUVABLE (ABT-267) + INTROUVABLE (ABT- 450/ R) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>dasabuvir + Ombitasvir + Lopinavir / ritonavir + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE + NON_TROUVE + J05AP08</t>
+          <t>J05AP09 + nan + J05AR10 + J05AP01 + J05AP08</t>
         </is>
       </c>
     </row>
@@ -4946,12 +4946,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (BOCEPREVIR)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Boceprevir</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>J05AP01 + L03AB11 + J05AE12</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (DACLATASVIR) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS)</t>
+          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>nan + J05AX14 + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -4980,12 +4980,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE</t>
+          <t>L03AB11 + L03AB10</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Asunaprévir + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + L03AB11 + NON_TROUVE</t>
+          <t>nan + NON_TROUVE + L03AB11 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -5014,12 +5014,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>N04BB01 + NON_TROUVE</t>
+          <t>N04BB01 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -5031,12 +5031,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>J05AF10 + NON_TROUVE</t>
+          <t>J05AF10 + J05AP01</t>
         </is>
       </c>
     </row>
@@ -5048,12 +5048,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>INTROUVABLE (OMBITASVIR/PARITAPREVIR/RITONAVIR)</t>
+          <t>OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AX</t>
         </is>
       </c>
     </row>
@@ -5065,12 +5065,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (BI 207127 ANTIPOLYMÉRASE) + INTROUVABLE (DACLATASVIR)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Deleobuvir + daclatasvir</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AP01 + L03AB11 + nan + J05AX14</t>
         </is>
       </c>
     </row>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DACLATASVIR) + INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + NON_TROUVE</t>
+          <t>J05AX14 + NON_TROUVE + J05AP01</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + LAMIVUDINE</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + J05AF05</t>
+          <t>L03AB11 + J05AP01 + J05AF05</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5116,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + LAMIVUDINE</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>L03AB11 + NON_TROUVE + J05AF05</t>
+          <t>L03AB11 + J05AP01 + J05AF05</t>
         </is>
       </c>
     </row>
@@ -5133,12 +5133,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + LAMIVUDINE</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + NON_TROUVE + J05AF05</t>
+          <t>J05AE11 + L03AB11 + J05AP01 + J05AF05</t>
         </is>
       </c>
     </row>
@@ -5150,12 +5150,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>INTROUVABLE (HEPSERA) + INTROUVABLE (INTERFERON)</t>
+          <t>Adéfovir dipivoxil + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AF08 + NON_TROUVE</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (SIMEPREVIR)</t>
+          <t>Daclatasvir + SIMEPREVIR</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>J05AX14 + J05AE14</t>
         </is>
       </c>
     </row>
@@ -5184,12 +5184,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BI 201335 ANTIPROTÉASE) + INTROUVABLE (BI 207127 ANTIPOLYMÉRASE)</t>
+          <t>Deleobuvir + Deleobuvir</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE</t>
+          <t>nan + nan</t>
         </is>
       </c>
     </row>
@@ -5201,12 +5201,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Daclatasvir + SOFOSBUVIR / VELPATASVIR</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AP55</t>
+          <t>J05AX14 + J05AP55</t>
         </is>
       </c>
     </row>
@@ -5218,12 +5218,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (INTRONA) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Ribavirine + Interféron alfa-2b + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + L03AB11</t>
+          <t>J05AP01 + L03AB05 + L03AB11</t>
         </is>
       </c>
     </row>
@@ -5235,12 +5235,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Ribavirine + INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>NON_TROUVE + NON_TROUVE + L03AB11</t>
+          <t>J05AP01 + NON_TROUVE + L03AB11</t>
         </is>
       </c>
     </row>
@@ -5269,12 +5269,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>INTROUVABLE (TELAPREVIR) + PEGINTERFÉRON ALFA-2A</t>
+          <t>télaprévir + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11</t>
+          <t>J05AE11 + L03AB11</t>
         </is>
       </c>
     </row>
@@ -5286,12 +5286,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>EMTRICITABINE + INTROUVABLE (HEPSERA)</t>
+          <t>EMTRICITABINE + Adéfovir dipivoxil</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>J05AF09 + NON_TROUVE</t>
+          <t>J05AF09 + J05AF08</t>
         </is>
       </c>
     </row>
